--- a/assets/snow/default_snow_roll.xlsx
+++ b/assets/snow/default_snow_roll.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -17,12 +16,25 @@
     <sheet name="中庭炉心" sheetId="5" r:id="rId7"/>
     <sheet name="新手池" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
   <si>
     <t>抽卡总览</t>
   </si>
@@ -49,6 +61,9 @@
   </si>
   <si>
     <t>计数</t>
+  </si>
+  <si>
+    <t>单独</t>
   </si>
   <si>
     <t>五星出货：</t>
@@ -87,14 +102,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,17 +155,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC40EF8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,16 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,31 +268,45 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,61 +320,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,60 +339,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -359,7 +354,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,109 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,17 +551,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,50 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,148 +651,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,74 +819,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00EB1BDF"/>
+      <color rgb="00C40EF8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1134,7 +1189,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1188,15 +1243,17 @@
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1228,12 +1285,12 @@
       <c r="F6" s="12"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -1265,12 +1322,12 @@
       <c r="F9" s="12"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -1302,12 +1359,12 @@
       <c r="F12" s="12"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -1340,12 +1397,12 @@
       <c r="F15" s="12"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -1378,12 +1435,12 @@
       <c r="F18" s="12"/>
       <c r="G18" s="4"/>
       <c r="H18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -1416,7 +1473,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="4"/>
       <c r="H21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1448,16 +1505,16 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5168,16 +5225,16 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -8888,16 +8945,16 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -12608,16 +12665,16 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -14152,16 +14209,16 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -14272,16 +14329,16 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
